--- a/MainTop/11.12.2025 Таня Озон/объединенный_отчет_с_местом.xlsx
+++ b/MainTop/11.12.2025 Таня Озон/объединенный_отчет_с_местом.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\11.12.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F4314E-0477-4797-9C25-3470A3615225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413D195C-0BC9-4B55-9436-13C8B208AE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>Артикул товара</t>
-  </si>
-  <si>
     <t>место</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Термонаклейка Аниме девочка в цветах и фонарях</t>
+  </si>
+  <si>
+    <t>Артикул</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,21 +561,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
@@ -587,7 +587,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
@@ -599,7 +599,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
@@ -611,7 +611,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
@@ -623,7 +623,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
@@ -635,7 +635,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
@@ -647,7 +647,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
@@ -659,7 +659,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
@@ -671,7 +671,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
@@ -683,7 +683,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2">
@@ -695,7 +695,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2">
@@ -707,7 +707,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2">
@@ -719,7 +719,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
@@ -731,7 +731,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
@@ -743,7 +743,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
@@ -755,7 +755,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2">
@@ -767,7 +767,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
@@ -779,7 +779,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2">
@@ -791,7 +791,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
@@ -803,7 +803,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
@@ -815,7 +815,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
@@ -827,7 +827,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
@@ -839,7 +839,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
@@ -851,7 +851,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
@@ -863,7 +863,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
@@ -875,7 +875,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2">
@@ -887,7 +887,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
@@ -899,7 +899,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2">
@@ -911,7 +911,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2">
@@ -923,7 +923,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2">
@@ -935,7 +935,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
@@ -947,7 +947,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2">
@@ -959,7 +959,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2">
@@ -971,7 +971,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
@@ -983,7 +983,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2">
@@ -995,7 +995,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2">
@@ -1007,7 +1007,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2">
@@ -1019,7 +1019,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2">
